--- a/test/perl_output/merge6.xlsx
+++ b/test/perl_output/merge6.xlsx
@@ -398,7 +398,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" ht="36" customHeight="1"/>
+    <row r="5" spans="2:4" ht="36" customHeight="1"/>
     <row r="6" spans="2:4" ht="36" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -411,9 +411,9 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" ht="36" customHeight="1"/>
-    <row r="9" ht="36" customHeight="1"/>
-    <row r="10" ht="36" customHeight="1"/>
+    <row r="8" spans="2:4" ht="36" customHeight="1"/>
+    <row r="9" spans="2:4" ht="36" customHeight="1"/>
+    <row r="10" spans="2:4" ht="36" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:D4"/>
